--- a/DAT/input/configuration.xlsx
+++ b/DAT/input/configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27676589-E604-4C0F-80F0-A57EA2965ED3}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5356B10-FF13-423C-AD1B-1FD866B07A01}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_rf" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="906">
   <si>
     <t>NAME</t>
   </si>
@@ -2687,6 +2687,72 @@
   </si>
   <si>
     <t>US Treasury 84M - Credint Rating: CCC</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>rate_type</t>
+  </si>
+  <si>
+    <t>term_mos</t>
+  </si>
+  <si>
+    <t>Loan amount</t>
+  </si>
+  <si>
+    <t>Fixed or Variable Indicator</t>
+  </si>
+  <si>
+    <t>Length of Mortgage (in Months)</t>
+  </si>
+  <si>
+    <t>cpn_rate</t>
+  </si>
+  <si>
+    <t>guar_entity</t>
+  </si>
+  <si>
+    <t>jumbo</t>
+  </si>
+  <si>
+    <t>credit_scr</t>
+  </si>
+  <si>
+    <t>monthly_cf</t>
+  </si>
+  <si>
+    <t>RemainingBal</t>
+  </si>
+  <si>
+    <t>LoanOfficer</t>
+  </si>
+  <si>
+    <t>CFMatDate</t>
+  </si>
+  <si>
+    <t>Mortgage rate</t>
+  </si>
+  <si>
+    <t>Government Entity</t>
+  </si>
+  <si>
+    <t>Jumbo mortgage indicator</t>
+  </si>
+  <si>
+    <t>Credit Bureau Score</t>
+  </si>
+  <si>
+    <t>Monthly Mortgage Payment</t>
+  </si>
+  <si>
+    <t>Remaining Balance at Run Date</t>
+  </si>
+  <si>
+    <t>Loan Officer</t>
+  </si>
+  <si>
+    <t>CF Maturity Date</t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -15070,10 +15136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBA6620-6321-4444-ACC7-7E476A56B17B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15308,6 +15374,172 @@
       </c>
       <c r="E14" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>884</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>885</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>886</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>890</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>891</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>892</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>893</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>894</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>895</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>896</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>897</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>

--- a/DAT/input/configuration.xlsx
+++ b/DAT/input/configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5356B10-FF13-423C-AD1B-1FD866B07A01}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F726B72-D8D4-4EE4-B06B-A96BF64E1242}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_rf" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="1118">
   <si>
     <t>NAME</t>
   </si>
@@ -2753,6 +2753,642 @@
   </si>
   <si>
     <t>CF Maturity Date</t>
+  </si>
+  <si>
+    <t>CETES_1</t>
+  </si>
+  <si>
+    <t>CETES_7</t>
+  </si>
+  <si>
+    <t>CETES_14</t>
+  </si>
+  <si>
+    <t>CETES_28</t>
+  </si>
+  <si>
+    <t>CETES_91</t>
+  </si>
+  <si>
+    <t>CETES_182</t>
+  </si>
+  <si>
+    <t>CETES_364</t>
+  </si>
+  <si>
+    <t>CETES_728</t>
+  </si>
+  <si>
+    <t>CETES_1092</t>
+  </si>
+  <si>
+    <t>CETES_1456</t>
+  </si>
+  <si>
+    <t>CETES_1820</t>
+  </si>
+  <si>
+    <t>CETES_2180</t>
+  </si>
+  <si>
+    <t>CETES_2548</t>
+  </si>
+  <si>
+    <t>CETES_2912</t>
+  </si>
+  <si>
+    <t>CETES_3276</t>
+  </si>
+  <si>
+    <t>CETES_3640</t>
+  </si>
+  <si>
+    <t>CETES_4004</t>
+  </si>
+  <si>
+    <t>CETES_4368</t>
+  </si>
+  <si>
+    <t>CETES_4732</t>
+  </si>
+  <si>
+    <t>CETES_5096</t>
+  </si>
+  <si>
+    <t>CETES_5460</t>
+  </si>
+  <si>
+    <t>CETES_5824</t>
+  </si>
+  <si>
+    <t>CETES_6188</t>
+  </si>
+  <si>
+    <t>CETES_6552</t>
+  </si>
+  <si>
+    <t>CETES_6916</t>
+  </si>
+  <si>
+    <t>CETES_7280</t>
+  </si>
+  <si>
+    <t>CETES_7644</t>
+  </si>
+  <si>
+    <t>CETES_8008</t>
+  </si>
+  <si>
+    <t>CETES_8372</t>
+  </si>
+  <si>
+    <t>CETES_8736</t>
+  </si>
+  <si>
+    <t>CETES_9020</t>
+  </si>
+  <si>
+    <t>CETES_9464</t>
+  </si>
+  <si>
+    <t>CETES_9828</t>
+  </si>
+  <si>
+    <t>CETES_10192</t>
+  </si>
+  <si>
+    <t>CETES_10556</t>
+  </si>
+  <si>
+    <t>CETES_10800</t>
+  </si>
+  <si>
+    <t>CETES_10920</t>
+  </si>
+  <si>
+    <t>IRS_1</t>
+  </si>
+  <si>
+    <t>IRS_7</t>
+  </si>
+  <si>
+    <t>IRS_14</t>
+  </si>
+  <si>
+    <t>IRS_28</t>
+  </si>
+  <si>
+    <t>IRS_91</t>
+  </si>
+  <si>
+    <t>IRS_182</t>
+  </si>
+  <si>
+    <t>IRS_364</t>
+  </si>
+  <si>
+    <t>IRS_728</t>
+  </si>
+  <si>
+    <t>IRS_1092</t>
+  </si>
+  <si>
+    <t>IRS_1456</t>
+  </si>
+  <si>
+    <t>IRS_1820</t>
+  </si>
+  <si>
+    <t>IRS_2180</t>
+  </si>
+  <si>
+    <t>IRS_2548</t>
+  </si>
+  <si>
+    <t>IRS_2912</t>
+  </si>
+  <si>
+    <t>IRS_3276</t>
+  </si>
+  <si>
+    <t>IRS_3640</t>
+  </si>
+  <si>
+    <t>IRS_4004</t>
+  </si>
+  <si>
+    <t>IRS_4368</t>
+  </si>
+  <si>
+    <t>IRS_4732</t>
+  </si>
+  <si>
+    <t>IRS_5096</t>
+  </si>
+  <si>
+    <t>IRS_5460</t>
+  </si>
+  <si>
+    <t>IRS_5824</t>
+  </si>
+  <si>
+    <t>IRS_6188</t>
+  </si>
+  <si>
+    <t>IRS_6552</t>
+  </si>
+  <si>
+    <t>IRS_6916</t>
+  </si>
+  <si>
+    <t>IRS_7280</t>
+  </si>
+  <si>
+    <t>IRS_7644</t>
+  </si>
+  <si>
+    <t>IRS_8008</t>
+  </si>
+  <si>
+    <t>IRS_8372</t>
+  </si>
+  <si>
+    <t>IRS_8736</t>
+  </si>
+  <si>
+    <t>IRS_9020</t>
+  </si>
+  <si>
+    <t>IRS_9464</t>
+  </si>
+  <si>
+    <t>LIBOR_1</t>
+  </si>
+  <si>
+    <t>LIBOR_7</t>
+  </si>
+  <si>
+    <t>LIBOR_14</t>
+  </si>
+  <si>
+    <t>LIBOR_28</t>
+  </si>
+  <si>
+    <t>LIBOR_91</t>
+  </si>
+  <si>
+    <t>LIBOR_182</t>
+  </si>
+  <si>
+    <t>LIBOR_364</t>
+  </si>
+  <si>
+    <t>LIBOR_728</t>
+  </si>
+  <si>
+    <t>LIBOR_1092</t>
+  </si>
+  <si>
+    <t>LIBOR_1456</t>
+  </si>
+  <si>
+    <t>LIBOR_1820</t>
+  </si>
+  <si>
+    <t>LIBOR_2180</t>
+  </si>
+  <si>
+    <t>LIBOR_2548</t>
+  </si>
+  <si>
+    <t>LIBOR_2912</t>
+  </si>
+  <si>
+    <t>LIBOR_3276</t>
+  </si>
+  <si>
+    <t>LIBOR_3640</t>
+  </si>
+  <si>
+    <t>LIBOR_4004</t>
+  </si>
+  <si>
+    <t>LIBOR_4368</t>
+  </si>
+  <si>
+    <t>LIBOR_4732</t>
+  </si>
+  <si>
+    <t>LIBOR_5096</t>
+  </si>
+  <si>
+    <t>LIBOR_5460</t>
+  </si>
+  <si>
+    <t>LIBOR_5824</t>
+  </si>
+  <si>
+    <t>LIBOR_6188</t>
+  </si>
+  <si>
+    <t>LIBOR_6552</t>
+  </si>
+  <si>
+    <t>LIBOR_6916</t>
+  </si>
+  <si>
+    <t>LIBOR_7280</t>
+  </si>
+  <si>
+    <t>LIBOR_7644</t>
+  </si>
+  <si>
+    <t>LIBOR_8008</t>
+  </si>
+  <si>
+    <t>LIBOR_8372</t>
+  </si>
+  <si>
+    <t>LIBOR_8736</t>
+  </si>
+  <si>
+    <t>LIBOR_9020</t>
+  </si>
+  <si>
+    <t>LIBOR_9464</t>
+  </si>
+  <si>
+    <t>LIBOR_9828</t>
+  </si>
+  <si>
+    <t>LIBOR_10192</t>
+  </si>
+  <si>
+    <t>LIBOR_10556</t>
+  </si>
+  <si>
+    <t>LIBOR_10800</t>
+  </si>
+  <si>
+    <t>LIBOR_10920</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 1 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 7 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 14 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 28 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 91 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 182 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 364 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 728 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 1092 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 1456 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 1820 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 2180 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 2548 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 2912 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 3276 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 3640 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 4004 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 4368 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 4732 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 5096 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 5460 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 5824 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 6188 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 6552 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 6916 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 7280 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 7644 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 8008 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 8372 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 8736 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 9020 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 9464 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 9828 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 10192 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 10556 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 10800 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva CETES a 10920 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 1 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 7 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 14 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 28 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 91 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 182 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 364 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 728 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 1092 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 1456 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 1820 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 2180 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 2548 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 2912 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 3276 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 3640 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 4004 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 4368 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 4732 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 5096 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 5460 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 5824 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 6188 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 6552 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 6916 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 7280 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 7644 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 8008 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 8372 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 8736 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 9020 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva IRS a 9464 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 1 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 7 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 14 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 28 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 91 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 182 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 364 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 728 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 1092 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 1456 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 1820 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 2180 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 2548 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 2912 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 3276 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 3640 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 4004 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 4368 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 4732 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 5096 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 5460 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 5824 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 6188 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 6552 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 6916 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 7280 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 7644 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 8008 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 8372 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 8736 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 9020 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 9464 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 9828 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 10192 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 10556 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 10800 día(s)</t>
+  </si>
+  <si>
+    <t>Nodo de la curva LIBOR a 10920 día(s)</t>
   </si>
 </sst>
 </file>
@@ -3121,11 +3757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K413"/>
+  <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E505" sqref="E505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15128,6 +15764,3080 @@
         <v>84</v>
       </c>
     </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>906</v>
+      </c>
+      <c r="B414" t="s">
+        <v>39</v>
+      </c>
+      <c r="C414" t="s">
+        <v>33</v>
+      </c>
+      <c r="D414" t="s">
+        <v>66</v>
+      </c>
+      <c r="E414" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F414" t="s">
+        <v>12</v>
+      </c>
+      <c r="G414" t="s">
+        <v>20</v>
+      </c>
+      <c r="J414" t="s">
+        <v>19</v>
+      </c>
+      <c r="K414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>907</v>
+      </c>
+      <c r="B415" t="s">
+        <v>39</v>
+      </c>
+      <c r="C415" t="s">
+        <v>33</v>
+      </c>
+      <c r="D415" t="s">
+        <v>66</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F415" t="s">
+        <v>12</v>
+      </c>
+      <c r="G415" t="s">
+        <v>20</v>
+      </c>
+      <c r="J415" t="s">
+        <v>19</v>
+      </c>
+      <c r="K415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>908</v>
+      </c>
+      <c r="B416" t="s">
+        <v>39</v>
+      </c>
+      <c r="C416" t="s">
+        <v>33</v>
+      </c>
+      <c r="D416" t="s">
+        <v>66</v>
+      </c>
+      <c r="E416" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F416" t="s">
+        <v>12</v>
+      </c>
+      <c r="G416" t="s">
+        <v>20</v>
+      </c>
+      <c r="J416" t="s">
+        <v>19</v>
+      </c>
+      <c r="K416">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>909</v>
+      </c>
+      <c r="B417" t="s">
+        <v>39</v>
+      </c>
+      <c r="C417" t="s">
+        <v>33</v>
+      </c>
+      <c r="D417" t="s">
+        <v>66</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F417" t="s">
+        <v>12</v>
+      </c>
+      <c r="G417" t="s">
+        <v>20</v>
+      </c>
+      <c r="J417" t="s">
+        <v>19</v>
+      </c>
+      <c r="K417">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>910</v>
+      </c>
+      <c r="B418" t="s">
+        <v>39</v>
+      </c>
+      <c r="C418" t="s">
+        <v>33</v>
+      </c>
+      <c r="D418" t="s">
+        <v>66</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F418" t="s">
+        <v>12</v>
+      </c>
+      <c r="G418" t="s">
+        <v>20</v>
+      </c>
+      <c r="J418" t="s">
+        <v>19</v>
+      </c>
+      <c r="K418">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>911</v>
+      </c>
+      <c r="B419" t="s">
+        <v>39</v>
+      </c>
+      <c r="C419" t="s">
+        <v>33</v>
+      </c>
+      <c r="D419" t="s">
+        <v>66</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F419" t="s">
+        <v>12</v>
+      </c>
+      <c r="G419" t="s">
+        <v>20</v>
+      </c>
+      <c r="J419" t="s">
+        <v>19</v>
+      </c>
+      <c r="K419">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>912</v>
+      </c>
+      <c r="B420" t="s">
+        <v>39</v>
+      </c>
+      <c r="C420" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420" t="s">
+        <v>66</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F420" t="s">
+        <v>12</v>
+      </c>
+      <c r="G420" t="s">
+        <v>20</v>
+      </c>
+      <c r="J420" t="s">
+        <v>19</v>
+      </c>
+      <c r="K420">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>913</v>
+      </c>
+      <c r="B421" t="s">
+        <v>39</v>
+      </c>
+      <c r="C421" t="s">
+        <v>33</v>
+      </c>
+      <c r="D421" t="s">
+        <v>66</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F421" t="s">
+        <v>12</v>
+      </c>
+      <c r="G421" t="s">
+        <v>20</v>
+      </c>
+      <c r="J421" t="s">
+        <v>19</v>
+      </c>
+      <c r="K421">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>914</v>
+      </c>
+      <c r="B422" t="s">
+        <v>39</v>
+      </c>
+      <c r="C422" t="s">
+        <v>33</v>
+      </c>
+      <c r="D422" t="s">
+        <v>66</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F422" t="s">
+        <v>12</v>
+      </c>
+      <c r="G422" t="s">
+        <v>20</v>
+      </c>
+      <c r="J422" t="s">
+        <v>19</v>
+      </c>
+      <c r="K422">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>915</v>
+      </c>
+      <c r="B423" t="s">
+        <v>39</v>
+      </c>
+      <c r="C423" t="s">
+        <v>33</v>
+      </c>
+      <c r="D423" t="s">
+        <v>66</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F423" t="s">
+        <v>12</v>
+      </c>
+      <c r="G423" t="s">
+        <v>20</v>
+      </c>
+      <c r="J423" t="s">
+        <v>19</v>
+      </c>
+      <c r="K423">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>916</v>
+      </c>
+      <c r="B424" t="s">
+        <v>39</v>
+      </c>
+      <c r="C424" t="s">
+        <v>33</v>
+      </c>
+      <c r="D424" t="s">
+        <v>66</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F424" t="s">
+        <v>12</v>
+      </c>
+      <c r="G424" t="s">
+        <v>20</v>
+      </c>
+      <c r="J424" t="s">
+        <v>19</v>
+      </c>
+      <c r="K424">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>917</v>
+      </c>
+      <c r="B425" t="s">
+        <v>39</v>
+      </c>
+      <c r="C425" t="s">
+        <v>33</v>
+      </c>
+      <c r="D425" t="s">
+        <v>66</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F425" t="s">
+        <v>12</v>
+      </c>
+      <c r="G425" t="s">
+        <v>20</v>
+      </c>
+      <c r="J425" t="s">
+        <v>19</v>
+      </c>
+      <c r="K425">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>918</v>
+      </c>
+      <c r="B426" t="s">
+        <v>39</v>
+      </c>
+      <c r="C426" t="s">
+        <v>33</v>
+      </c>
+      <c r="D426" t="s">
+        <v>66</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F426" t="s">
+        <v>12</v>
+      </c>
+      <c r="G426" t="s">
+        <v>20</v>
+      </c>
+      <c r="J426" t="s">
+        <v>19</v>
+      </c>
+      <c r="K426">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>919</v>
+      </c>
+      <c r="B427" t="s">
+        <v>39</v>
+      </c>
+      <c r="C427" t="s">
+        <v>33</v>
+      </c>
+      <c r="D427" t="s">
+        <v>66</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F427" t="s">
+        <v>12</v>
+      </c>
+      <c r="G427" t="s">
+        <v>20</v>
+      </c>
+      <c r="J427" t="s">
+        <v>19</v>
+      </c>
+      <c r="K427">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>920</v>
+      </c>
+      <c r="B428" t="s">
+        <v>39</v>
+      </c>
+      <c r="C428" t="s">
+        <v>33</v>
+      </c>
+      <c r="D428" t="s">
+        <v>66</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F428" t="s">
+        <v>12</v>
+      </c>
+      <c r="G428" t="s">
+        <v>20</v>
+      </c>
+      <c r="J428" t="s">
+        <v>19</v>
+      </c>
+      <c r="K428">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>921</v>
+      </c>
+      <c r="B429" t="s">
+        <v>39</v>
+      </c>
+      <c r="C429" t="s">
+        <v>33</v>
+      </c>
+      <c r="D429" t="s">
+        <v>66</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F429" t="s">
+        <v>12</v>
+      </c>
+      <c r="G429" t="s">
+        <v>20</v>
+      </c>
+      <c r="J429" t="s">
+        <v>19</v>
+      </c>
+      <c r="K429">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>922</v>
+      </c>
+      <c r="B430" t="s">
+        <v>39</v>
+      </c>
+      <c r="C430" t="s">
+        <v>33</v>
+      </c>
+      <c r="D430" t="s">
+        <v>66</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F430" t="s">
+        <v>12</v>
+      </c>
+      <c r="G430" t="s">
+        <v>20</v>
+      </c>
+      <c r="J430" t="s">
+        <v>19</v>
+      </c>
+      <c r="K430">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>923</v>
+      </c>
+      <c r="B431" t="s">
+        <v>39</v>
+      </c>
+      <c r="C431" t="s">
+        <v>33</v>
+      </c>
+      <c r="D431" t="s">
+        <v>66</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F431" t="s">
+        <v>12</v>
+      </c>
+      <c r="G431" t="s">
+        <v>20</v>
+      </c>
+      <c r="J431" t="s">
+        <v>19</v>
+      </c>
+      <c r="K431">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>924</v>
+      </c>
+      <c r="B432" t="s">
+        <v>39</v>
+      </c>
+      <c r="C432" t="s">
+        <v>33</v>
+      </c>
+      <c r="D432" t="s">
+        <v>66</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F432" t="s">
+        <v>12</v>
+      </c>
+      <c r="G432" t="s">
+        <v>20</v>
+      </c>
+      <c r="J432" t="s">
+        <v>19</v>
+      </c>
+      <c r="K432">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>925</v>
+      </c>
+      <c r="B433" t="s">
+        <v>39</v>
+      </c>
+      <c r="C433" t="s">
+        <v>33</v>
+      </c>
+      <c r="D433" t="s">
+        <v>66</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F433" t="s">
+        <v>12</v>
+      </c>
+      <c r="G433" t="s">
+        <v>20</v>
+      </c>
+      <c r="J433" t="s">
+        <v>19</v>
+      </c>
+      <c r="K433">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>926</v>
+      </c>
+      <c r="B434" t="s">
+        <v>39</v>
+      </c>
+      <c r="C434" t="s">
+        <v>33</v>
+      </c>
+      <c r="D434" t="s">
+        <v>66</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F434" t="s">
+        <v>12</v>
+      </c>
+      <c r="G434" t="s">
+        <v>20</v>
+      </c>
+      <c r="J434" t="s">
+        <v>19</v>
+      </c>
+      <c r="K434">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>927</v>
+      </c>
+      <c r="B435" t="s">
+        <v>39</v>
+      </c>
+      <c r="C435" t="s">
+        <v>33</v>
+      </c>
+      <c r="D435" t="s">
+        <v>66</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F435" t="s">
+        <v>12</v>
+      </c>
+      <c r="G435" t="s">
+        <v>20</v>
+      </c>
+      <c r="J435" t="s">
+        <v>19</v>
+      </c>
+      <c r="K435">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>928</v>
+      </c>
+      <c r="B436" t="s">
+        <v>39</v>
+      </c>
+      <c r="C436" t="s">
+        <v>33</v>
+      </c>
+      <c r="D436" t="s">
+        <v>66</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F436" t="s">
+        <v>12</v>
+      </c>
+      <c r="G436" t="s">
+        <v>20</v>
+      </c>
+      <c r="J436" t="s">
+        <v>19</v>
+      </c>
+      <c r="K436">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>929</v>
+      </c>
+      <c r="B437" t="s">
+        <v>39</v>
+      </c>
+      <c r="C437" t="s">
+        <v>33</v>
+      </c>
+      <c r="D437" t="s">
+        <v>66</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F437" t="s">
+        <v>12</v>
+      </c>
+      <c r="G437" t="s">
+        <v>20</v>
+      </c>
+      <c r="J437" t="s">
+        <v>19</v>
+      </c>
+      <c r="K437">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>930</v>
+      </c>
+      <c r="B438" t="s">
+        <v>39</v>
+      </c>
+      <c r="C438" t="s">
+        <v>33</v>
+      </c>
+      <c r="D438" t="s">
+        <v>66</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F438" t="s">
+        <v>12</v>
+      </c>
+      <c r="G438" t="s">
+        <v>20</v>
+      </c>
+      <c r="J438" t="s">
+        <v>19</v>
+      </c>
+      <c r="K438">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>931</v>
+      </c>
+      <c r="B439" t="s">
+        <v>39</v>
+      </c>
+      <c r="C439" t="s">
+        <v>33</v>
+      </c>
+      <c r="D439" t="s">
+        <v>66</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F439" t="s">
+        <v>12</v>
+      </c>
+      <c r="G439" t="s">
+        <v>20</v>
+      </c>
+      <c r="J439" t="s">
+        <v>19</v>
+      </c>
+      <c r="K439">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>932</v>
+      </c>
+      <c r="B440" t="s">
+        <v>39</v>
+      </c>
+      <c r="C440" t="s">
+        <v>33</v>
+      </c>
+      <c r="D440" t="s">
+        <v>66</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F440" t="s">
+        <v>12</v>
+      </c>
+      <c r="G440" t="s">
+        <v>20</v>
+      </c>
+      <c r="J440" t="s">
+        <v>19</v>
+      </c>
+      <c r="K440">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>933</v>
+      </c>
+      <c r="B441" t="s">
+        <v>39</v>
+      </c>
+      <c r="C441" t="s">
+        <v>33</v>
+      </c>
+      <c r="D441" t="s">
+        <v>66</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F441" t="s">
+        <v>12</v>
+      </c>
+      <c r="G441" t="s">
+        <v>20</v>
+      </c>
+      <c r="J441" t="s">
+        <v>19</v>
+      </c>
+      <c r="K441">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>934</v>
+      </c>
+      <c r="B442" t="s">
+        <v>39</v>
+      </c>
+      <c r="C442" t="s">
+        <v>33</v>
+      </c>
+      <c r="D442" t="s">
+        <v>66</v>
+      </c>
+      <c r="E442" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F442" t="s">
+        <v>12</v>
+      </c>
+      <c r="G442" t="s">
+        <v>20</v>
+      </c>
+      <c r="J442" t="s">
+        <v>19</v>
+      </c>
+      <c r="K442">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>935</v>
+      </c>
+      <c r="B443" t="s">
+        <v>39</v>
+      </c>
+      <c r="C443" t="s">
+        <v>33</v>
+      </c>
+      <c r="D443" t="s">
+        <v>66</v>
+      </c>
+      <c r="E443" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F443" t="s">
+        <v>12</v>
+      </c>
+      <c r="G443" t="s">
+        <v>20</v>
+      </c>
+      <c r="J443" t="s">
+        <v>19</v>
+      </c>
+      <c r="K443">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>936</v>
+      </c>
+      <c r="B444" t="s">
+        <v>39</v>
+      </c>
+      <c r="C444" t="s">
+        <v>33</v>
+      </c>
+      <c r="D444" t="s">
+        <v>66</v>
+      </c>
+      <c r="E444" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F444" t="s">
+        <v>12</v>
+      </c>
+      <c r="G444" t="s">
+        <v>20</v>
+      </c>
+      <c r="J444" t="s">
+        <v>19</v>
+      </c>
+      <c r="K444">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>937</v>
+      </c>
+      <c r="B445" t="s">
+        <v>39</v>
+      </c>
+      <c r="C445" t="s">
+        <v>33</v>
+      </c>
+      <c r="D445" t="s">
+        <v>66</v>
+      </c>
+      <c r="E445" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F445" t="s">
+        <v>12</v>
+      </c>
+      <c r="G445" t="s">
+        <v>20</v>
+      </c>
+      <c r="J445" t="s">
+        <v>19</v>
+      </c>
+      <c r="K445">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>938</v>
+      </c>
+      <c r="B446" t="s">
+        <v>39</v>
+      </c>
+      <c r="C446" t="s">
+        <v>33</v>
+      </c>
+      <c r="D446" t="s">
+        <v>66</v>
+      </c>
+      <c r="E446" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F446" t="s">
+        <v>12</v>
+      </c>
+      <c r="G446" t="s">
+        <v>20</v>
+      </c>
+      <c r="J446" t="s">
+        <v>19</v>
+      </c>
+      <c r="K446">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>939</v>
+      </c>
+      <c r="B447" t="s">
+        <v>39</v>
+      </c>
+      <c r="C447" t="s">
+        <v>33</v>
+      </c>
+      <c r="D447" t="s">
+        <v>66</v>
+      </c>
+      <c r="E447" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F447" t="s">
+        <v>12</v>
+      </c>
+      <c r="G447" t="s">
+        <v>20</v>
+      </c>
+      <c r="J447" t="s">
+        <v>19</v>
+      </c>
+      <c r="K447">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>940</v>
+      </c>
+      <c r="B448" t="s">
+        <v>39</v>
+      </c>
+      <c r="C448" t="s">
+        <v>33</v>
+      </c>
+      <c r="D448" t="s">
+        <v>66</v>
+      </c>
+      <c r="E448" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F448" t="s">
+        <v>12</v>
+      </c>
+      <c r="G448" t="s">
+        <v>20</v>
+      </c>
+      <c r="J448" t="s">
+        <v>19</v>
+      </c>
+      <c r="K448">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>941</v>
+      </c>
+      <c r="B449" t="s">
+        <v>39</v>
+      </c>
+      <c r="C449" t="s">
+        <v>33</v>
+      </c>
+      <c r="D449" t="s">
+        <v>66</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F449" t="s">
+        <v>12</v>
+      </c>
+      <c r="G449" t="s">
+        <v>20</v>
+      </c>
+      <c r="J449" t="s">
+        <v>19</v>
+      </c>
+      <c r="K449">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>942</v>
+      </c>
+      <c r="B450" t="s">
+        <v>39</v>
+      </c>
+      <c r="C450" t="s">
+        <v>33</v>
+      </c>
+      <c r="D450" t="s">
+        <v>66</v>
+      </c>
+      <c r="E450" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F450" t="s">
+        <v>12</v>
+      </c>
+      <c r="G450" t="s">
+        <v>20</v>
+      </c>
+      <c r="J450" t="s">
+        <v>19</v>
+      </c>
+      <c r="K450">
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>943</v>
+      </c>
+      <c r="B451" t="s">
+        <v>39</v>
+      </c>
+      <c r="C451" t="s">
+        <v>33</v>
+      </c>
+      <c r="D451" t="s">
+        <v>66</v>
+      </c>
+      <c r="E451" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F451" t="s">
+        <v>12</v>
+      </c>
+      <c r="G451" t="s">
+        <v>20</v>
+      </c>
+      <c r="J451" t="s">
+        <v>19</v>
+      </c>
+      <c r="K451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>944</v>
+      </c>
+      <c r="B452" t="s">
+        <v>39</v>
+      </c>
+      <c r="C452" t="s">
+        <v>33</v>
+      </c>
+      <c r="D452" t="s">
+        <v>66</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F452" t="s">
+        <v>12</v>
+      </c>
+      <c r="G452" t="s">
+        <v>20</v>
+      </c>
+      <c r="J452" t="s">
+        <v>19</v>
+      </c>
+      <c r="K452">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>945</v>
+      </c>
+      <c r="B453" t="s">
+        <v>39</v>
+      </c>
+      <c r="C453" t="s">
+        <v>33</v>
+      </c>
+      <c r="D453" t="s">
+        <v>66</v>
+      </c>
+      <c r="E453" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F453" t="s">
+        <v>12</v>
+      </c>
+      <c r="G453" t="s">
+        <v>20</v>
+      </c>
+      <c r="J453" t="s">
+        <v>19</v>
+      </c>
+      <c r="K453">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>946</v>
+      </c>
+      <c r="B454" t="s">
+        <v>39</v>
+      </c>
+      <c r="C454" t="s">
+        <v>33</v>
+      </c>
+      <c r="D454" t="s">
+        <v>66</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F454" t="s">
+        <v>12</v>
+      </c>
+      <c r="G454" t="s">
+        <v>20</v>
+      </c>
+      <c r="J454" t="s">
+        <v>19</v>
+      </c>
+      <c r="K454">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>947</v>
+      </c>
+      <c r="B455" t="s">
+        <v>39</v>
+      </c>
+      <c r="C455" t="s">
+        <v>33</v>
+      </c>
+      <c r="D455" t="s">
+        <v>66</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F455" t="s">
+        <v>12</v>
+      </c>
+      <c r="G455" t="s">
+        <v>20</v>
+      </c>
+      <c r="J455" t="s">
+        <v>19</v>
+      </c>
+      <c r="K455">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>948</v>
+      </c>
+      <c r="B456" t="s">
+        <v>39</v>
+      </c>
+      <c r="C456" t="s">
+        <v>33</v>
+      </c>
+      <c r="D456" t="s">
+        <v>66</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F456" t="s">
+        <v>12</v>
+      </c>
+      <c r="G456" t="s">
+        <v>20</v>
+      </c>
+      <c r="J456" t="s">
+        <v>19</v>
+      </c>
+      <c r="K456">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>949</v>
+      </c>
+      <c r="B457" t="s">
+        <v>39</v>
+      </c>
+      <c r="C457" t="s">
+        <v>33</v>
+      </c>
+      <c r="D457" t="s">
+        <v>66</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F457" t="s">
+        <v>12</v>
+      </c>
+      <c r="G457" t="s">
+        <v>20</v>
+      </c>
+      <c r="J457" t="s">
+        <v>19</v>
+      </c>
+      <c r="K457">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>950</v>
+      </c>
+      <c r="B458" t="s">
+        <v>39</v>
+      </c>
+      <c r="C458" t="s">
+        <v>33</v>
+      </c>
+      <c r="D458" t="s">
+        <v>66</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F458" t="s">
+        <v>12</v>
+      </c>
+      <c r="G458" t="s">
+        <v>20</v>
+      </c>
+      <c r="J458" t="s">
+        <v>19</v>
+      </c>
+      <c r="K458">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>951</v>
+      </c>
+      <c r="B459" t="s">
+        <v>39</v>
+      </c>
+      <c r="C459" t="s">
+        <v>33</v>
+      </c>
+      <c r="D459" t="s">
+        <v>66</v>
+      </c>
+      <c r="E459" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F459" t="s">
+        <v>12</v>
+      </c>
+      <c r="G459" t="s">
+        <v>20</v>
+      </c>
+      <c r="J459" t="s">
+        <v>19</v>
+      </c>
+      <c r="K459">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>952</v>
+      </c>
+      <c r="B460" t="s">
+        <v>39</v>
+      </c>
+      <c r="C460" t="s">
+        <v>33</v>
+      </c>
+      <c r="D460" t="s">
+        <v>66</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F460" t="s">
+        <v>12</v>
+      </c>
+      <c r="G460" t="s">
+        <v>20</v>
+      </c>
+      <c r="J460" t="s">
+        <v>19</v>
+      </c>
+      <c r="K460">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>953</v>
+      </c>
+      <c r="B461" t="s">
+        <v>39</v>
+      </c>
+      <c r="C461" t="s">
+        <v>33</v>
+      </c>
+      <c r="D461" t="s">
+        <v>66</v>
+      </c>
+      <c r="E461" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F461" t="s">
+        <v>12</v>
+      </c>
+      <c r="G461" t="s">
+        <v>20</v>
+      </c>
+      <c r="J461" t="s">
+        <v>19</v>
+      </c>
+      <c r="K461">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>954</v>
+      </c>
+      <c r="B462" t="s">
+        <v>39</v>
+      </c>
+      <c r="C462" t="s">
+        <v>33</v>
+      </c>
+      <c r="D462" t="s">
+        <v>66</v>
+      </c>
+      <c r="E462" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F462" t="s">
+        <v>12</v>
+      </c>
+      <c r="G462" t="s">
+        <v>20</v>
+      </c>
+      <c r="J462" t="s">
+        <v>19</v>
+      </c>
+      <c r="K462">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>955</v>
+      </c>
+      <c r="B463" t="s">
+        <v>39</v>
+      </c>
+      <c r="C463" t="s">
+        <v>33</v>
+      </c>
+      <c r="D463" t="s">
+        <v>66</v>
+      </c>
+      <c r="E463" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F463" t="s">
+        <v>12</v>
+      </c>
+      <c r="G463" t="s">
+        <v>20</v>
+      </c>
+      <c r="J463" t="s">
+        <v>19</v>
+      </c>
+      <c r="K463">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>956</v>
+      </c>
+      <c r="B464" t="s">
+        <v>39</v>
+      </c>
+      <c r="C464" t="s">
+        <v>33</v>
+      </c>
+      <c r="D464" t="s">
+        <v>66</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F464" t="s">
+        <v>12</v>
+      </c>
+      <c r="G464" t="s">
+        <v>20</v>
+      </c>
+      <c r="J464" t="s">
+        <v>19</v>
+      </c>
+      <c r="K464">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>957</v>
+      </c>
+      <c r="B465" t="s">
+        <v>39</v>
+      </c>
+      <c r="C465" t="s">
+        <v>33</v>
+      </c>
+      <c r="D465" t="s">
+        <v>66</v>
+      </c>
+      <c r="E465" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F465" t="s">
+        <v>12</v>
+      </c>
+      <c r="G465" t="s">
+        <v>20</v>
+      </c>
+      <c r="J465" t="s">
+        <v>19</v>
+      </c>
+      <c r="K465">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>958</v>
+      </c>
+      <c r="B466" t="s">
+        <v>39</v>
+      </c>
+      <c r="C466" t="s">
+        <v>33</v>
+      </c>
+      <c r="D466" t="s">
+        <v>66</v>
+      </c>
+      <c r="E466" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F466" t="s">
+        <v>12</v>
+      </c>
+      <c r="G466" t="s">
+        <v>20</v>
+      </c>
+      <c r="J466" t="s">
+        <v>19</v>
+      </c>
+      <c r="K466">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>959</v>
+      </c>
+      <c r="B467" t="s">
+        <v>39</v>
+      </c>
+      <c r="C467" t="s">
+        <v>33</v>
+      </c>
+      <c r="D467" t="s">
+        <v>66</v>
+      </c>
+      <c r="E467" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F467" t="s">
+        <v>12</v>
+      </c>
+      <c r="G467" t="s">
+        <v>20</v>
+      </c>
+      <c r="J467" t="s">
+        <v>19</v>
+      </c>
+      <c r="K467">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>960</v>
+      </c>
+      <c r="B468" t="s">
+        <v>39</v>
+      </c>
+      <c r="C468" t="s">
+        <v>33</v>
+      </c>
+      <c r="D468" t="s">
+        <v>66</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F468" t="s">
+        <v>12</v>
+      </c>
+      <c r="G468" t="s">
+        <v>20</v>
+      </c>
+      <c r="J468" t="s">
+        <v>19</v>
+      </c>
+      <c r="K468">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>961</v>
+      </c>
+      <c r="B469" t="s">
+        <v>39</v>
+      </c>
+      <c r="C469" t="s">
+        <v>33</v>
+      </c>
+      <c r="D469" t="s">
+        <v>66</v>
+      </c>
+      <c r="E469" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F469" t="s">
+        <v>12</v>
+      </c>
+      <c r="G469" t="s">
+        <v>20</v>
+      </c>
+      <c r="J469" t="s">
+        <v>19</v>
+      </c>
+      <c r="K469">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>962</v>
+      </c>
+      <c r="B470" t="s">
+        <v>39</v>
+      </c>
+      <c r="C470" t="s">
+        <v>33</v>
+      </c>
+      <c r="D470" t="s">
+        <v>66</v>
+      </c>
+      <c r="E470" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F470" t="s">
+        <v>12</v>
+      </c>
+      <c r="G470" t="s">
+        <v>20</v>
+      </c>
+      <c r="J470" t="s">
+        <v>19</v>
+      </c>
+      <c r="K470">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>963</v>
+      </c>
+      <c r="B471" t="s">
+        <v>39</v>
+      </c>
+      <c r="C471" t="s">
+        <v>33</v>
+      </c>
+      <c r="D471" t="s">
+        <v>66</v>
+      </c>
+      <c r="E471" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F471" t="s">
+        <v>12</v>
+      </c>
+      <c r="G471" t="s">
+        <v>20</v>
+      </c>
+      <c r="J471" t="s">
+        <v>19</v>
+      </c>
+      <c r="K471">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>964</v>
+      </c>
+      <c r="B472" t="s">
+        <v>39</v>
+      </c>
+      <c r="C472" t="s">
+        <v>33</v>
+      </c>
+      <c r="D472" t="s">
+        <v>66</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F472" t="s">
+        <v>12</v>
+      </c>
+      <c r="G472" t="s">
+        <v>20</v>
+      </c>
+      <c r="J472" t="s">
+        <v>19</v>
+      </c>
+      <c r="K472">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>965</v>
+      </c>
+      <c r="B473" t="s">
+        <v>39</v>
+      </c>
+      <c r="C473" t="s">
+        <v>33</v>
+      </c>
+      <c r="D473" t="s">
+        <v>66</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F473" t="s">
+        <v>12</v>
+      </c>
+      <c r="G473" t="s">
+        <v>20</v>
+      </c>
+      <c r="J473" t="s">
+        <v>19</v>
+      </c>
+      <c r="K473">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>966</v>
+      </c>
+      <c r="B474" t="s">
+        <v>39</v>
+      </c>
+      <c r="C474" t="s">
+        <v>33</v>
+      </c>
+      <c r="D474" t="s">
+        <v>66</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F474" t="s">
+        <v>12</v>
+      </c>
+      <c r="G474" t="s">
+        <v>20</v>
+      </c>
+      <c r="J474" t="s">
+        <v>19</v>
+      </c>
+      <c r="K474">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>967</v>
+      </c>
+      <c r="B475" t="s">
+        <v>39</v>
+      </c>
+      <c r="C475" t="s">
+        <v>33</v>
+      </c>
+      <c r="D475" t="s">
+        <v>66</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F475" t="s">
+        <v>12</v>
+      </c>
+      <c r="G475" t="s">
+        <v>20</v>
+      </c>
+      <c r="J475" t="s">
+        <v>19</v>
+      </c>
+      <c r="K475">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>968</v>
+      </c>
+      <c r="B476" t="s">
+        <v>39</v>
+      </c>
+      <c r="C476" t="s">
+        <v>33</v>
+      </c>
+      <c r="D476" t="s">
+        <v>66</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F476" t="s">
+        <v>12</v>
+      </c>
+      <c r="G476" t="s">
+        <v>20</v>
+      </c>
+      <c r="J476" t="s">
+        <v>19</v>
+      </c>
+      <c r="K476">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>969</v>
+      </c>
+      <c r="B477" t="s">
+        <v>39</v>
+      </c>
+      <c r="C477" t="s">
+        <v>33</v>
+      </c>
+      <c r="D477" t="s">
+        <v>66</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F477" t="s">
+        <v>12</v>
+      </c>
+      <c r="G477" t="s">
+        <v>20</v>
+      </c>
+      <c r="J477" t="s">
+        <v>19</v>
+      </c>
+      <c r="K477">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>970</v>
+      </c>
+      <c r="B478" t="s">
+        <v>39</v>
+      </c>
+      <c r="C478" t="s">
+        <v>33</v>
+      </c>
+      <c r="D478" t="s">
+        <v>66</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F478" t="s">
+        <v>12</v>
+      </c>
+      <c r="G478" t="s">
+        <v>20</v>
+      </c>
+      <c r="J478" t="s">
+        <v>19</v>
+      </c>
+      <c r="K478">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>971</v>
+      </c>
+      <c r="B479" t="s">
+        <v>39</v>
+      </c>
+      <c r="C479" t="s">
+        <v>33</v>
+      </c>
+      <c r="D479" t="s">
+        <v>66</v>
+      </c>
+      <c r="E479" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F479" t="s">
+        <v>12</v>
+      </c>
+      <c r="G479" t="s">
+        <v>20</v>
+      </c>
+      <c r="J479" t="s">
+        <v>19</v>
+      </c>
+      <c r="K479">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>972</v>
+      </c>
+      <c r="B480" t="s">
+        <v>39</v>
+      </c>
+      <c r="C480" t="s">
+        <v>33</v>
+      </c>
+      <c r="D480" t="s">
+        <v>66</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F480" t="s">
+        <v>12</v>
+      </c>
+      <c r="G480" t="s">
+        <v>20</v>
+      </c>
+      <c r="J480" t="s">
+        <v>19</v>
+      </c>
+      <c r="K480">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>973</v>
+      </c>
+      <c r="B481" t="s">
+        <v>39</v>
+      </c>
+      <c r="C481" t="s">
+        <v>33</v>
+      </c>
+      <c r="D481" t="s">
+        <v>66</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F481" t="s">
+        <v>12</v>
+      </c>
+      <c r="G481" t="s">
+        <v>20</v>
+      </c>
+      <c r="J481" t="s">
+        <v>19</v>
+      </c>
+      <c r="K481">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>974</v>
+      </c>
+      <c r="B482" t="s">
+        <v>39</v>
+      </c>
+      <c r="C482" t="s">
+        <v>33</v>
+      </c>
+      <c r="D482" t="s">
+        <v>66</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F482" t="s">
+        <v>12</v>
+      </c>
+      <c r="G482" t="s">
+        <v>20</v>
+      </c>
+      <c r="J482" t="s">
+        <v>19</v>
+      </c>
+      <c r="K482">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>975</v>
+      </c>
+      <c r="B483" t="s">
+        <v>39</v>
+      </c>
+      <c r="C483" t="s">
+        <v>33</v>
+      </c>
+      <c r="D483" t="s">
+        <v>66</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F483" t="s">
+        <v>12</v>
+      </c>
+      <c r="G483" t="s">
+        <v>20</v>
+      </c>
+      <c r="J483" t="s">
+        <v>19</v>
+      </c>
+      <c r="K483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>976</v>
+      </c>
+      <c r="B484" t="s">
+        <v>39</v>
+      </c>
+      <c r="C484" t="s">
+        <v>33</v>
+      </c>
+      <c r="D484" t="s">
+        <v>66</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F484" t="s">
+        <v>12</v>
+      </c>
+      <c r="G484" t="s">
+        <v>20</v>
+      </c>
+      <c r="J484" t="s">
+        <v>19</v>
+      </c>
+      <c r="K484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>977</v>
+      </c>
+      <c r="B485" t="s">
+        <v>39</v>
+      </c>
+      <c r="C485" t="s">
+        <v>33</v>
+      </c>
+      <c r="D485" t="s">
+        <v>66</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F485" t="s">
+        <v>12</v>
+      </c>
+      <c r="G485" t="s">
+        <v>20</v>
+      </c>
+      <c r="J485" t="s">
+        <v>19</v>
+      </c>
+      <c r="K485">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>978</v>
+      </c>
+      <c r="B486" t="s">
+        <v>39</v>
+      </c>
+      <c r="C486" t="s">
+        <v>33</v>
+      </c>
+      <c r="D486" t="s">
+        <v>66</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F486" t="s">
+        <v>12</v>
+      </c>
+      <c r="G486" t="s">
+        <v>20</v>
+      </c>
+      <c r="J486" t="s">
+        <v>19</v>
+      </c>
+      <c r="K486">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>979</v>
+      </c>
+      <c r="B487" t="s">
+        <v>39</v>
+      </c>
+      <c r="C487" t="s">
+        <v>33</v>
+      </c>
+      <c r="D487" t="s">
+        <v>66</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F487" t="s">
+        <v>12</v>
+      </c>
+      <c r="G487" t="s">
+        <v>20</v>
+      </c>
+      <c r="J487" t="s">
+        <v>19</v>
+      </c>
+      <c r="K487">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>980</v>
+      </c>
+      <c r="B488" t="s">
+        <v>39</v>
+      </c>
+      <c r="C488" t="s">
+        <v>33</v>
+      </c>
+      <c r="D488" t="s">
+        <v>66</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F488" t="s">
+        <v>12</v>
+      </c>
+      <c r="G488" t="s">
+        <v>20</v>
+      </c>
+      <c r="J488" t="s">
+        <v>19</v>
+      </c>
+      <c r="K488">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>981</v>
+      </c>
+      <c r="B489" t="s">
+        <v>39</v>
+      </c>
+      <c r="C489" t="s">
+        <v>33</v>
+      </c>
+      <c r="D489" t="s">
+        <v>66</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F489" t="s">
+        <v>12</v>
+      </c>
+      <c r="G489" t="s">
+        <v>20</v>
+      </c>
+      <c r="J489" t="s">
+        <v>19</v>
+      </c>
+      <c r="K489">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>982</v>
+      </c>
+      <c r="B490" t="s">
+        <v>39</v>
+      </c>
+      <c r="C490" t="s">
+        <v>33</v>
+      </c>
+      <c r="D490" t="s">
+        <v>66</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F490" t="s">
+        <v>12</v>
+      </c>
+      <c r="G490" t="s">
+        <v>20</v>
+      </c>
+      <c r="J490" t="s">
+        <v>19</v>
+      </c>
+      <c r="K490">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>983</v>
+      </c>
+      <c r="B491" t="s">
+        <v>39</v>
+      </c>
+      <c r="C491" t="s">
+        <v>33</v>
+      </c>
+      <c r="D491" t="s">
+        <v>66</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F491" t="s">
+        <v>12</v>
+      </c>
+      <c r="G491" t="s">
+        <v>20</v>
+      </c>
+      <c r="J491" t="s">
+        <v>19</v>
+      </c>
+      <c r="K491">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>984</v>
+      </c>
+      <c r="B492" t="s">
+        <v>39</v>
+      </c>
+      <c r="C492" t="s">
+        <v>33</v>
+      </c>
+      <c r="D492" t="s">
+        <v>66</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F492" t="s">
+        <v>12</v>
+      </c>
+      <c r="G492" t="s">
+        <v>20</v>
+      </c>
+      <c r="J492" t="s">
+        <v>19</v>
+      </c>
+      <c r="K492">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>985</v>
+      </c>
+      <c r="B493" t="s">
+        <v>39</v>
+      </c>
+      <c r="C493" t="s">
+        <v>33</v>
+      </c>
+      <c r="D493" t="s">
+        <v>66</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F493" t="s">
+        <v>12</v>
+      </c>
+      <c r="G493" t="s">
+        <v>20</v>
+      </c>
+      <c r="J493" t="s">
+        <v>19</v>
+      </c>
+      <c r="K493">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>986</v>
+      </c>
+      <c r="B494" t="s">
+        <v>39</v>
+      </c>
+      <c r="C494" t="s">
+        <v>33</v>
+      </c>
+      <c r="D494" t="s">
+        <v>66</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F494" t="s">
+        <v>12</v>
+      </c>
+      <c r="G494" t="s">
+        <v>20</v>
+      </c>
+      <c r="J494" t="s">
+        <v>19</v>
+      </c>
+      <c r="K494">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>987</v>
+      </c>
+      <c r="B495" t="s">
+        <v>39</v>
+      </c>
+      <c r="C495" t="s">
+        <v>33</v>
+      </c>
+      <c r="D495" t="s">
+        <v>66</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F495" t="s">
+        <v>12</v>
+      </c>
+      <c r="G495" t="s">
+        <v>20</v>
+      </c>
+      <c r="J495" t="s">
+        <v>19</v>
+      </c>
+      <c r="K495">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>988</v>
+      </c>
+      <c r="B496" t="s">
+        <v>39</v>
+      </c>
+      <c r="C496" t="s">
+        <v>33</v>
+      </c>
+      <c r="D496" t="s">
+        <v>66</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F496" t="s">
+        <v>12</v>
+      </c>
+      <c r="G496" t="s">
+        <v>20</v>
+      </c>
+      <c r="J496" t="s">
+        <v>19</v>
+      </c>
+      <c r="K496">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>989</v>
+      </c>
+      <c r="B497" t="s">
+        <v>39</v>
+      </c>
+      <c r="C497" t="s">
+        <v>33</v>
+      </c>
+      <c r="D497" t="s">
+        <v>66</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F497" t="s">
+        <v>12</v>
+      </c>
+      <c r="G497" t="s">
+        <v>20</v>
+      </c>
+      <c r="J497" t="s">
+        <v>19</v>
+      </c>
+      <c r="K497">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>990</v>
+      </c>
+      <c r="B498" t="s">
+        <v>39</v>
+      </c>
+      <c r="C498" t="s">
+        <v>33</v>
+      </c>
+      <c r="D498" t="s">
+        <v>66</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F498" t="s">
+        <v>12</v>
+      </c>
+      <c r="G498" t="s">
+        <v>20</v>
+      </c>
+      <c r="J498" t="s">
+        <v>19</v>
+      </c>
+      <c r="K498">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>991</v>
+      </c>
+      <c r="B499" t="s">
+        <v>39</v>
+      </c>
+      <c r="C499" t="s">
+        <v>33</v>
+      </c>
+      <c r="D499" t="s">
+        <v>66</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F499" t="s">
+        <v>12</v>
+      </c>
+      <c r="G499" t="s">
+        <v>20</v>
+      </c>
+      <c r="J499" t="s">
+        <v>19</v>
+      </c>
+      <c r="K499">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>992</v>
+      </c>
+      <c r="B500" t="s">
+        <v>39</v>
+      </c>
+      <c r="C500" t="s">
+        <v>33</v>
+      </c>
+      <c r="D500" t="s">
+        <v>66</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F500" t="s">
+        <v>12</v>
+      </c>
+      <c r="G500" t="s">
+        <v>20</v>
+      </c>
+      <c r="J500" t="s">
+        <v>19</v>
+      </c>
+      <c r="K500">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>993</v>
+      </c>
+      <c r="B501" t="s">
+        <v>39</v>
+      </c>
+      <c r="C501" t="s">
+        <v>33</v>
+      </c>
+      <c r="D501" t="s">
+        <v>66</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F501" t="s">
+        <v>12</v>
+      </c>
+      <c r="G501" t="s">
+        <v>20</v>
+      </c>
+      <c r="J501" t="s">
+        <v>19</v>
+      </c>
+      <c r="K501">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>994</v>
+      </c>
+      <c r="B502" t="s">
+        <v>39</v>
+      </c>
+      <c r="C502" t="s">
+        <v>33</v>
+      </c>
+      <c r="D502" t="s">
+        <v>66</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F502" t="s">
+        <v>12</v>
+      </c>
+      <c r="G502" t="s">
+        <v>20</v>
+      </c>
+      <c r="J502" t="s">
+        <v>19</v>
+      </c>
+      <c r="K502">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>995</v>
+      </c>
+      <c r="B503" t="s">
+        <v>39</v>
+      </c>
+      <c r="C503" t="s">
+        <v>33</v>
+      </c>
+      <c r="D503" t="s">
+        <v>66</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F503" t="s">
+        <v>12</v>
+      </c>
+      <c r="G503" t="s">
+        <v>20</v>
+      </c>
+      <c r="J503" t="s">
+        <v>19</v>
+      </c>
+      <c r="K503">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>996</v>
+      </c>
+      <c r="B504" t="s">
+        <v>39</v>
+      </c>
+      <c r="C504" t="s">
+        <v>33</v>
+      </c>
+      <c r="D504" t="s">
+        <v>66</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F504" t="s">
+        <v>12</v>
+      </c>
+      <c r="G504" t="s">
+        <v>20</v>
+      </c>
+      <c r="J504" t="s">
+        <v>19</v>
+      </c>
+      <c r="K504">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>997</v>
+      </c>
+      <c r="B505" t="s">
+        <v>39</v>
+      </c>
+      <c r="C505" t="s">
+        <v>33</v>
+      </c>
+      <c r="D505" t="s">
+        <v>66</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F505" t="s">
+        <v>12</v>
+      </c>
+      <c r="G505" t="s">
+        <v>20</v>
+      </c>
+      <c r="J505" t="s">
+        <v>19</v>
+      </c>
+      <c r="K505">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>998</v>
+      </c>
+      <c r="B506" t="s">
+        <v>39</v>
+      </c>
+      <c r="C506" t="s">
+        <v>33</v>
+      </c>
+      <c r="D506" t="s">
+        <v>66</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F506" t="s">
+        <v>12</v>
+      </c>
+      <c r="G506" t="s">
+        <v>20</v>
+      </c>
+      <c r="J506" t="s">
+        <v>19</v>
+      </c>
+      <c r="K506">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>999</v>
+      </c>
+      <c r="B507" t="s">
+        <v>39</v>
+      </c>
+      <c r="C507" t="s">
+        <v>33</v>
+      </c>
+      <c r="D507" t="s">
+        <v>66</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F507" t="s">
+        <v>12</v>
+      </c>
+      <c r="G507" t="s">
+        <v>20</v>
+      </c>
+      <c r="J507" t="s">
+        <v>19</v>
+      </c>
+      <c r="K507">
+        <v>6916</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B508" t="s">
+        <v>39</v>
+      </c>
+      <c r="C508" t="s">
+        <v>33</v>
+      </c>
+      <c r="D508" t="s">
+        <v>66</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F508" t="s">
+        <v>12</v>
+      </c>
+      <c r="G508" t="s">
+        <v>20</v>
+      </c>
+      <c r="J508" t="s">
+        <v>19</v>
+      </c>
+      <c r="K508">
+        <v>7280</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B509" t="s">
+        <v>39</v>
+      </c>
+      <c r="C509" t="s">
+        <v>33</v>
+      </c>
+      <c r="D509" t="s">
+        <v>66</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F509" t="s">
+        <v>12</v>
+      </c>
+      <c r="G509" t="s">
+        <v>20</v>
+      </c>
+      <c r="J509" t="s">
+        <v>19</v>
+      </c>
+      <c r="K509">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B510" t="s">
+        <v>39</v>
+      </c>
+      <c r="C510" t="s">
+        <v>33</v>
+      </c>
+      <c r="D510" t="s">
+        <v>66</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F510" t="s">
+        <v>12</v>
+      </c>
+      <c r="G510" t="s">
+        <v>20</v>
+      </c>
+      <c r="J510" t="s">
+        <v>19</v>
+      </c>
+      <c r="K510">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B511" t="s">
+        <v>39</v>
+      </c>
+      <c r="C511" t="s">
+        <v>33</v>
+      </c>
+      <c r="D511" t="s">
+        <v>66</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F511" t="s">
+        <v>12</v>
+      </c>
+      <c r="G511" t="s">
+        <v>20</v>
+      </c>
+      <c r="J511" t="s">
+        <v>19</v>
+      </c>
+      <c r="K511">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B512" t="s">
+        <v>39</v>
+      </c>
+      <c r="C512" t="s">
+        <v>33</v>
+      </c>
+      <c r="D512" t="s">
+        <v>66</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F512" t="s">
+        <v>12</v>
+      </c>
+      <c r="G512" t="s">
+        <v>20</v>
+      </c>
+      <c r="J512" t="s">
+        <v>19</v>
+      </c>
+      <c r="K512">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B513" t="s">
+        <v>39</v>
+      </c>
+      <c r="C513" t="s">
+        <v>33</v>
+      </c>
+      <c r="D513" t="s">
+        <v>66</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F513" t="s">
+        <v>12</v>
+      </c>
+      <c r="G513" t="s">
+        <v>20</v>
+      </c>
+      <c r="J513" t="s">
+        <v>19</v>
+      </c>
+      <c r="K513">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B514" t="s">
+        <v>39</v>
+      </c>
+      <c r="C514" t="s">
+        <v>33</v>
+      </c>
+      <c r="D514" t="s">
+        <v>66</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F514" t="s">
+        <v>12</v>
+      </c>
+      <c r="G514" t="s">
+        <v>20</v>
+      </c>
+      <c r="J514" t="s">
+        <v>19</v>
+      </c>
+      <c r="K514">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B515" t="s">
+        <v>39</v>
+      </c>
+      <c r="C515" t="s">
+        <v>33</v>
+      </c>
+      <c r="D515" t="s">
+        <v>66</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F515" t="s">
+        <v>12</v>
+      </c>
+      <c r="G515" t="s">
+        <v>20</v>
+      </c>
+      <c r="J515" t="s">
+        <v>19</v>
+      </c>
+      <c r="K515">
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B516" t="s">
+        <v>39</v>
+      </c>
+      <c r="C516" t="s">
+        <v>33</v>
+      </c>
+      <c r="D516" t="s">
+        <v>66</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F516" t="s">
+        <v>12</v>
+      </c>
+      <c r="G516" t="s">
+        <v>20</v>
+      </c>
+      <c r="J516" t="s">
+        <v>19</v>
+      </c>
+      <c r="K516">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B517" t="s">
+        <v>39</v>
+      </c>
+      <c r="C517" t="s">
+        <v>33</v>
+      </c>
+      <c r="D517" t="s">
+        <v>66</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F517" t="s">
+        <v>12</v>
+      </c>
+      <c r="G517" t="s">
+        <v>20</v>
+      </c>
+      <c r="J517" t="s">
+        <v>19</v>
+      </c>
+      <c r="K517">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B518" t="s">
+        <v>39</v>
+      </c>
+      <c r="C518" t="s">
+        <v>33</v>
+      </c>
+      <c r="D518" t="s">
+        <v>66</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F518" t="s">
+        <v>12</v>
+      </c>
+      <c r="G518" t="s">
+        <v>20</v>
+      </c>
+      <c r="J518" t="s">
+        <v>19</v>
+      </c>
+      <c r="K518">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B519" t="s">
+        <v>39</v>
+      </c>
+      <c r="C519" t="s">
+        <v>33</v>
+      </c>
+      <c r="D519" t="s">
+        <v>66</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F519" t="s">
+        <v>12</v>
+      </c>
+      <c r="G519" t="s">
+        <v>20</v>
+      </c>
+      <c r="J519" t="s">
+        <v>19</v>
+      </c>
+      <c r="K519">
+        <v>10920</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -15138,8 +18848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBA6620-6321-4444-ACC7-7E476A56B17B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DAT/input/configuration.xlsx
+++ b/DAT/input/configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F726B72-D8D4-4EE4-B06B-A96BF64E1242}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE3A759-2D95-45CD-97D9-E9F34DF5B694}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="-110" windowWidth="29020" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3760,8 +3760,8 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E505" sqref="E505"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F483" sqref="F483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17782,7 +17782,7 @@
         <v>1081</v>
       </c>
       <c r="F483" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G483" t="s">
         <v>20</v>
@@ -17811,7 +17811,7 @@
         <v>1082</v>
       </c>
       <c r="F484" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G484" t="s">
         <v>20</v>
@@ -17840,7 +17840,7 @@
         <v>1083</v>
       </c>
       <c r="F485" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G485" t="s">
         <v>20</v>
@@ -17869,7 +17869,7 @@
         <v>1084</v>
       </c>
       <c r="F486" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G486" t="s">
         <v>20</v>
@@ -17898,7 +17898,7 @@
         <v>1085</v>
       </c>
       <c r="F487" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G487" t="s">
         <v>20</v>
@@ -17927,7 +17927,7 @@
         <v>1086</v>
       </c>
       <c r="F488" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G488" t="s">
         <v>20</v>
@@ -17956,7 +17956,7 @@
         <v>1087</v>
       </c>
       <c r="F489" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G489" t="s">
         <v>20</v>
@@ -17985,7 +17985,7 @@
         <v>1088</v>
       </c>
       <c r="F490" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G490" t="s">
         <v>20</v>
@@ -18014,7 +18014,7 @@
         <v>1089</v>
       </c>
       <c r="F491" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G491" t="s">
         <v>20</v>
@@ -18043,7 +18043,7 @@
         <v>1090</v>
       </c>
       <c r="F492" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G492" t="s">
         <v>20</v>
@@ -18072,7 +18072,7 @@
         <v>1091</v>
       </c>
       <c r="F493" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G493" t="s">
         <v>20</v>
@@ -18101,7 +18101,7 @@
         <v>1092</v>
       </c>
       <c r="F494" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G494" t="s">
         <v>20</v>
@@ -18130,7 +18130,7 @@
         <v>1093</v>
       </c>
       <c r="F495" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G495" t="s">
         <v>20</v>
@@ -18159,7 +18159,7 @@
         <v>1094</v>
       </c>
       <c r="F496" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G496" t="s">
         <v>20</v>
@@ -18188,7 +18188,7 @@
         <v>1095</v>
       </c>
       <c r="F497" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G497" t="s">
         <v>20</v>
@@ -18217,7 +18217,7 @@
         <v>1096</v>
       </c>
       <c r="F498" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G498" t="s">
         <v>20</v>
@@ -18246,7 +18246,7 @@
         <v>1097</v>
       </c>
       <c r="F499" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G499" t="s">
         <v>20</v>
@@ -18275,7 +18275,7 @@
         <v>1098</v>
       </c>
       <c r="F500" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G500" t="s">
         <v>20</v>
@@ -18304,7 +18304,7 @@
         <v>1099</v>
       </c>
       <c r="F501" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G501" t="s">
         <v>20</v>
@@ -18333,7 +18333,7 @@
         <v>1100</v>
       </c>
       <c r="F502" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G502" t="s">
         <v>20</v>
@@ -18362,7 +18362,7 @@
         <v>1101</v>
       </c>
       <c r="F503" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G503" t="s">
         <v>20</v>
@@ -18391,7 +18391,7 @@
         <v>1102</v>
       </c>
       <c r="F504" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G504" t="s">
         <v>20</v>
@@ -18420,7 +18420,7 @@
         <v>1103</v>
       </c>
       <c r="F505" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G505" t="s">
         <v>20</v>
@@ -18449,7 +18449,7 @@
         <v>1104</v>
       </c>
       <c r="F506" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G506" t="s">
         <v>20</v>
@@ -18478,7 +18478,7 @@
         <v>1105</v>
       </c>
       <c r="F507" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G507" t="s">
         <v>20</v>
@@ -18507,7 +18507,7 @@
         <v>1106</v>
       </c>
       <c r="F508" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G508" t="s">
         <v>20</v>
@@ -18536,7 +18536,7 @@
         <v>1107</v>
       </c>
       <c r="F509" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G509" t="s">
         <v>20</v>
@@ -18565,7 +18565,7 @@
         <v>1108</v>
       </c>
       <c r="F510" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G510" t="s">
         <v>20</v>
@@ -18594,7 +18594,7 @@
         <v>1109</v>
       </c>
       <c r="F511" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G511" t="s">
         <v>20</v>
@@ -18623,7 +18623,7 @@
         <v>1110</v>
       </c>
       <c r="F512" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G512" t="s">
         <v>20</v>
@@ -18652,7 +18652,7 @@
         <v>1111</v>
       </c>
       <c r="F513" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G513" t="s">
         <v>20</v>
@@ -18681,7 +18681,7 @@
         <v>1112</v>
       </c>
       <c r="F514" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G514" t="s">
         <v>20</v>
@@ -18710,7 +18710,7 @@
         <v>1113</v>
       </c>
       <c r="F515" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G515" t="s">
         <v>20</v>
@@ -18739,7 +18739,7 @@
         <v>1114</v>
       </c>
       <c r="F516" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G516" t="s">
         <v>20</v>
@@ -18768,7 +18768,7 @@
         <v>1115</v>
       </c>
       <c r="F517" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G517" t="s">
         <v>20</v>
@@ -18797,7 +18797,7 @@
         <v>1116</v>
       </c>
       <c r="F518" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G518" t="s">
         <v>20</v>
@@ -18826,7 +18826,7 @@
         <v>1117</v>
       </c>
       <c r="F519" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G519" t="s">
         <v>20</v>

--- a/DAT/input/configuration.xlsx
+++ b/DAT/input/configuration.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C9285F-EC75-4D7D-8F04-05364709DA53}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0859C1C2-AAB1-4935-9060-CD68367304BB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_rf" sheetId="1" r:id="rId1"/>
     <sheet name="instvars" sheetId="2" r:id="rId2"/>
     <sheet name="refvars" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">config_rf!$A$1:$K$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">instvars!$A$1:$E$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2552,10 +2556,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2855,10 +2855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2866,6 +2867,8 @@
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -2903,7 +2906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -3451,7 +3454,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -3509,7 +3512,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3770,7 +3773,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -4031,7 +4034,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -4350,7 +4353,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -4553,7 +4556,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -4640,7 +4643,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -4901,7 +4904,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5133,7 +5136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5336,7 +5339,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5394,7 +5397,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -5771,7 +5774,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -5974,7 +5977,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>350</v>
       </c>
@@ -6119,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>352</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>354</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>356</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>301</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>302</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>303</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>304</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>363</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>366</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>307</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>369</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>373</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>375</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>377</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>379</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>381</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>383</v>
       </c>
@@ -6699,7 +6702,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>387</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>389</v>
       </c>
@@ -6786,7 +6789,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>391</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>393</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>395</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>401</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>403</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>405</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>407</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>409</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>411</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>413</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>415</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>417</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>419</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>421</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>423</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>308</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>309</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>310</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7395,7 +7398,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>430</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -7482,7 +7485,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>433</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>314</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>436</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>438</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>440</v>
       </c>
@@ -7627,7 +7630,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -7656,7 +7659,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>444</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>446</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>448</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>450</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>452</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>454</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>456</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>458</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>460</v>
       </c>
@@ -7917,7 +7920,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>462</v>
       </c>
@@ -7946,7 +7949,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>464</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>466</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>468</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>470</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>472</v>
       </c>
@@ -8091,7 +8094,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>474</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>476</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>478</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>480</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>482</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>484</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>486</v>
       </c>
@@ -8294,7 +8297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>490</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>315</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>316</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>317</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>318</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>319</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>320</v>
       </c>
@@ -8555,7 +8558,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>321</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>503</v>
       </c>
@@ -8642,7 +8645,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>505</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>507</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>509</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>511</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>513</v>
       </c>
@@ -8787,7 +8790,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>515</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>517</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>519</v>
       </c>
@@ -8874,7 +8877,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -8903,7 +8906,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>523</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>525</v>
       </c>
@@ -8961,7 +8964,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>527</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>529</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>531</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>533</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>535</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>537</v>
       </c>
@@ -9135,7 +9138,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>539</v>
       </c>
@@ -9164,7 +9167,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>541</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>543</v>
       </c>
@@ -9222,7 +9225,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>545</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>547</v>
       </c>
@@ -9280,7 +9283,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>549</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>551</v>
       </c>
@@ -9338,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>553</v>
       </c>
@@ -9367,7 +9370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>555</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>557</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>322</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>323</v>
       </c>
@@ -9483,7 +9486,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>324</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>325</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>326</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>564</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>327</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>567</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>328</v>
       </c>
@@ -9686,7 +9689,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>570</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>572</v>
       </c>
@@ -9744,7 +9747,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>574</v>
       </c>
@@ -9773,7 +9776,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>576</v>
       </c>
@@ -9802,7 +9805,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>578</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>580</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>582</v>
       </c>
@@ -9889,7 +9892,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>584</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>586</v>
       </c>
@@ -9947,7 +9950,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>588</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>590</v>
       </c>
@@ -10005,7 +10008,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>592</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>594</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>596</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>598</v>
       </c>
@@ -10121,7 +10124,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>600</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>602</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>604</v>
       </c>
@@ -10208,7 +10211,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>606</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>608</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>610</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>614</v>
       </c>
@@ -10353,7 +10356,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>616</v>
       </c>
@@ -10382,7 +10385,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>618</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>620</v>
       </c>
@@ -10440,7 +10443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>622</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>624</v>
       </c>
@@ -10498,7 +10501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>329</v>
       </c>
@@ -10527,7 +10530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>330</v>
       </c>
@@ -10556,7 +10559,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>331</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>332</v>
       </c>
@@ -10614,7 +10617,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>333</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>631</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>334</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>634</v>
       </c>
@@ -10730,7 +10733,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>335</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>637</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>639</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>641</v>
       </c>
@@ -10846,7 +10849,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>643</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>645</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>647</v>
       </c>
@@ -10933,7 +10936,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>649</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>651</v>
       </c>
@@ -10991,7 +10994,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>653</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>655</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>657</v>
       </c>
@@ -11078,7 +11081,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>659</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>661</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>663</v>
       </c>
@@ -11165,7 +11168,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>665</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>667</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>669</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>671</v>
       </c>
@@ -11281,7 +11284,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>673</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>675</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>677</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>679</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>681</v>
       </c>
@@ -11426,7 +11429,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>683</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>685</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>687</v>
       </c>
@@ -11513,7 +11516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>689</v>
       </c>
@@ -11542,7 +11545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>691</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>336</v>
       </c>
@@ -11600,7 +11603,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>337</v>
       </c>
@@ -11629,7 +11632,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>338</v>
       </c>
@@ -11658,7 +11661,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>339</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>340</v>
       </c>
@@ -11716,7 +11719,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>698</v>
       </c>
@@ -11745,7 +11748,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>341</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>701</v>
       </c>
@@ -11803,7 +11806,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>342</v>
       </c>
@@ -11832,7 +11835,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>704</v>
       </c>
@@ -11861,7 +11864,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>706</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>708</v>
       </c>
@@ -11919,7 +11922,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>710</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>712</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>714</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>716</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>718</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>720</v>
       </c>
@@ -12093,7 +12096,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>722</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>724</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>726</v>
       </c>
@@ -12180,7 +12183,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>728</v>
       </c>
@@ -12209,7 +12212,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>730</v>
       </c>
@@ -12238,7 +12241,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>732</v>
       </c>
@@ -12267,7 +12270,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>734</v>
       </c>
@@ -12296,7 +12299,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>736</v>
       </c>
@@ -12325,7 +12328,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>738</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>740</v>
       </c>
@@ -12383,7 +12386,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>742</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>744</v>
       </c>
@@ -12441,7 +12444,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>746</v>
       </c>
@@ -12470,7 +12473,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>748</v>
       </c>
@@ -12499,7 +12502,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>750</v>
       </c>
@@ -13602,6 +13605,50 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K370" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AAPL"/>
+        <filter val="MX_CCC_1"/>
+        <filter val="MX_CCC_10192"/>
+        <filter val="MX_CCC_10556"/>
+        <filter val="MX_CCC_10800"/>
+        <filter val="MX_CCC_1092"/>
+        <filter val="MX_CCC_10920"/>
+        <filter val="MX_CCC_14"/>
+        <filter val="MX_CCC_1456"/>
+        <filter val="MX_CCC_182"/>
+        <filter val="MX_CCC_1820"/>
+        <filter val="MX_CCC_2180"/>
+        <filter val="MX_CCC_2548"/>
+        <filter val="MX_CCC_28"/>
+        <filter val="MX_CCC_2912"/>
+        <filter val="MX_CCC_3276"/>
+        <filter val="MX_CCC_364"/>
+        <filter val="MX_CCC_3640"/>
+        <filter val="MX_CCC_4004"/>
+        <filter val="MX_CCC_4368"/>
+        <filter val="MX_CCC_4732"/>
+        <filter val="MX_CCC_5096"/>
+        <filter val="MX_CCC_5460"/>
+        <filter val="MX_CCC_5824"/>
+        <filter val="MX_CCC_6188"/>
+        <filter val="MX_CCC_6552"/>
+        <filter val="MX_CCC_6916"/>
+        <filter val="MX_CCC_7"/>
+        <filter val="MX_CCC_728"/>
+        <filter val="MX_CCC_7280"/>
+        <filter val="MX_CCC_7644"/>
+        <filter val="MX_CCC_8008"/>
+        <filter val="MX_CCC_8372"/>
+        <filter val="MX_CCC_8736"/>
+        <filter val="MX_CCC_9020"/>
+        <filter val="MX_CCC_91"/>
+        <filter val="MX_CCC_9464"/>
+        <filter val="MX_CCC_9828"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13611,8 +13658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBA6620-6321-4444-ACC7-7E476A56B17B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14016,6 +14063,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E25" xr:uid="{DFBA6620-6321-4444-ACC7-7E476A56B17B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DAT/input/configuration.xlsx
+++ b/DAT/input/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="463" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0859C1C2-AAB1-4935-9060-CD68367304BB}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD618049-FADD-4FC7-807F-CD5ABDF7028C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20510" yWindow="1450" windowWidth="20620" windowHeight="11740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_rf" sheetId="1" r:id="rId1"/>
@@ -2855,12 +2855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2906,7 +2905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>350</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>352</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>354</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>356</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>301</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>302</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>303</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>304</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>363</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>306</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>366</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>307</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>369</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>373</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>375</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>377</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>379</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>381</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>383</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>387</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>389</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>391</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>393</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>395</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>399</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>401</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>403</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>405</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>407</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>409</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>411</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>413</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>415</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>417</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>419</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>421</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>423</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>308</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>309</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>310</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>430</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>313</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>433</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>314</v>
       </c>
@@ -7543,7 +7542,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>436</v>
       </c>
@@ -7572,7 +7571,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>438</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>440</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>444</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>446</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>448</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>450</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>452</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>454</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>456</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>458</v>
       </c>
@@ -7891,7 +7890,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>460</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>462</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>464</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>466</v>
       </c>
@@ -8007,7 +8006,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>468</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>470</v>
       </c>
@@ -8065,7 +8064,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>472</v>
       </c>
@@ -8094,7 +8093,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>474</v>
       </c>
@@ -8123,7 +8122,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>476</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>478</v>
       </c>
@@ -8181,7 +8180,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>480</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>482</v>
       </c>
@@ -8239,7 +8238,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>484</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>486</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>490</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>315</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>316</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>317</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>318</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>319</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>497</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>320</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>500</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>321</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>503</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>505</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>507</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>509</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>511</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>513</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>515</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>517</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>519</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>523</v>
       </c>
@@ -8935,7 +8934,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>525</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>527</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>529</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>531</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>533</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>535</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>537</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>539</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>541</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>543</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>545</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>547</v>
       </c>
@@ -9283,7 +9282,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>549</v>
       </c>
@@ -9312,7 +9311,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>551</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>553</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>555</v>
       </c>
@@ -9399,7 +9398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>557</v>
       </c>
@@ -9428,7 +9427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>322</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>323</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>324</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>325</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>326</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>564</v>
       </c>
@@ -9602,7 +9601,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>327</v>
       </c>
@@ -9631,7 +9630,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>567</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>328</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>570</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>572</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>574</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>576</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>578</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>580</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>582</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>584</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>586</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>588</v>
       </c>
@@ -9979,7 +9978,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>590</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>592</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>594</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>596</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>598</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>600</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>602</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>604</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>606</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>608</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>610</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>612</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>614</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>616</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>618</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>620</v>
       </c>
@@ -10443,7 +10442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>622</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>624</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>329</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>330</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>331</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>332</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>333</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>631</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>334</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>634</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>335</v>
       </c>
@@ -10762,7 +10761,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>637</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>639</v>
       </c>
@@ -10820,7 +10819,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>641</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>643</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>645</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>647</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>649</v>
       </c>
@@ -10965,7 +10964,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>651</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>653</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>655</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>657</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>659</v>
       </c>
@@ -11110,7 +11109,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>661</v>
       </c>
@@ -11139,7 +11138,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>663</v>
       </c>
@@ -11168,7 +11167,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>665</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>667</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>669</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>671</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>673</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>675</v>
       </c>
@@ -11342,7 +11341,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>677</v>
       </c>
@@ -11371,7 +11370,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>679</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>681</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>683</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>10920</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>685</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>687</v>
       </c>
@@ -11516,7 +11515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>689</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>691</v>
       </c>
@@ -11574,7 +11573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>336</v>
       </c>
@@ -11603,7 +11602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>337</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>338</v>
       </c>
@@ -11661,7 +11660,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>339</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>340</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>698</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>341</v>
       </c>
@@ -11777,7 +11776,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>701</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>342</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>704</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>706</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>708</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>710</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>712</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>714</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>716</v>
       </c>
@@ -12038,7 +12037,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>718</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>5460</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>720</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>5824</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>722</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>724</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>726</v>
       </c>
@@ -12183,7 +12182,7 @@
         <v>6916</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>728</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>730</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>732</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>8008</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>734</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>8372</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>736</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>738</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>9020</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>740</v>
       </c>
@@ -12386,7 +12385,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>742</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>9828</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>744</v>
       </c>
@@ -12444,7 +12443,7 @@
         <v>10192</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>746</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>10556</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>748</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>750</v>
       </c>
@@ -13605,50 +13604,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K370" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="AAPL"/>
-        <filter val="MX_CCC_1"/>
-        <filter val="MX_CCC_10192"/>
-        <filter val="MX_CCC_10556"/>
-        <filter val="MX_CCC_10800"/>
-        <filter val="MX_CCC_1092"/>
-        <filter val="MX_CCC_10920"/>
-        <filter val="MX_CCC_14"/>
-        <filter val="MX_CCC_1456"/>
-        <filter val="MX_CCC_182"/>
-        <filter val="MX_CCC_1820"/>
-        <filter val="MX_CCC_2180"/>
-        <filter val="MX_CCC_2548"/>
-        <filter val="MX_CCC_28"/>
-        <filter val="MX_CCC_2912"/>
-        <filter val="MX_CCC_3276"/>
-        <filter val="MX_CCC_364"/>
-        <filter val="MX_CCC_3640"/>
-        <filter val="MX_CCC_4004"/>
-        <filter val="MX_CCC_4368"/>
-        <filter val="MX_CCC_4732"/>
-        <filter val="MX_CCC_5096"/>
-        <filter val="MX_CCC_5460"/>
-        <filter val="MX_CCC_5824"/>
-        <filter val="MX_CCC_6188"/>
-        <filter val="MX_CCC_6552"/>
-        <filter val="MX_CCC_6916"/>
-        <filter val="MX_CCC_7"/>
-        <filter val="MX_CCC_728"/>
-        <filter val="MX_CCC_7280"/>
-        <filter val="MX_CCC_7644"/>
-        <filter val="MX_CCC_8008"/>
-        <filter val="MX_CCC_8372"/>
-        <filter val="MX_CCC_8736"/>
-        <filter val="MX_CCC_9020"/>
-        <filter val="MX_CCC_91"/>
-        <filter val="MX_CCC_9464"/>
-        <filter val="MX_CCC_9828"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K370" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -13658,8 +13614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBA6620-6321-4444-ACC7-7E476A56B17B}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14072,7 +14028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28E0C64-F3A9-4C37-A42A-6DB659D66C68}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/DAT/input/configuration.xlsx
+++ b/DAT/input/configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lasallistasorg-my.sharepoint.com/personal/perez-jose_lasallistas_org_mx/Documents/Riesgos Financieros/riskengine/riskengine/DAT/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD618049-FADD-4FC7-807F-CD5ABDF7028C}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54DB85A-A89A-4F73-83C7-02B10B0262AC}"/>
   <bookViews>
-    <workbookView xWindow="-20510" yWindow="1450" windowWidth="20620" windowHeight="11740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20510" yWindow="1450" windowWidth="20620" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config_rf" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="819">
   <si>
     <t>NAME</t>
   </si>
@@ -2518,12 +2518,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2538,9 +2544,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2556,6 +2563,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2857,9 +2868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2921,6 +2932,9 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
@@ -2947,6 +2961,9 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
@@ -2972,6 +2989,9 @@
       </c>
       <c r="E4" t="s">
         <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -14028,7 +14048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28E0C64-F3A9-4C37-A42A-6DB659D66C68}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
